--- a/report/reliability/comb/Faculdade de Arquitetura e Urbanismo - FAU-Graduação (bacharelado)-Presencial.xlsx
+++ b/report/reliability/comb/Faculdade de Arquitetura e Urbanismo - FAU-Graduação (bacharelado)-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7126936280192964</v>
+        <v>0.6608005271895915</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7309861190464108</v>
+        <v>0.6886523111128225</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8640561565742572</v>
+        <v>0.8386053301164522</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.1846319594600018</v>
+        <v>0.14540271602081836</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>2.717280299645661</v>
+        <v>2.2118433368630805</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.028055075002036193</v>
+        <v>0.03154453549842498</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.364883401920439</v>
+        <v>1.7714466603355492</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.6462340737567518</v>
+        <v>0.5279326237763979</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.10036804832706556</v>
+        <v>0.06586169705225092</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.6814569384467829</v>
+        <v>0.6628578166434025</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.6945160768481701</v>
+        <v>0.6889910850749505</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8341625970111521</v>
+        <v>0.8428467187086727</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.17128079245403632</v>
+        <v>0.15584162013005143</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>2.27349468895941</v>
+        <v>2.2153419146875324</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.031226351230147307</v>
+        <v>0.03194026960006805</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.04526506078573121</v>
+        <v>0.061066737038108825</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.08105033593107519</v>
+        <v>0.06905288860876557</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.6811845544959327</v>
+        <v>0.6369478614514452</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.6964483843481021</v>
+        <v>0.662970188857124</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8361859701532164</v>
+        <v>0.8160716487239841</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.17257975370091333</v>
+        <v>0.14083790204591065</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>2.29433265526336</v>
+        <v>1.9670965799997833</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.03126787649289587</v>
+        <v>0.03368600134201765</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.046322359381447416</v>
+        <v>0.05899149333744033</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.08105033593107519</v>
+        <v>0.06430656088573469</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.6783342437816381</v>
+        <v>0.6380003755461985</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.690858131745785</v>
+        <v>0.6618823700017507</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8290052694694998</v>
+        <v>0.8165399602828317</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.16885539842051298</v>
+        <v>0.14025029587518223</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>2.2347608094859392</v>
+        <v>1.9575506015618815</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.031474109416077686</v>
+        <v>0.0335706013540025</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.04455125632836214</v>
+        <v>0.0596019504523222</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.08924052136139907</v>
+        <v>0.0627138244240297</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.6743511603626907</v>
+        <v>0.6413121269889868</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.6899940424899549</v>
+        <v>0.6552820644566614</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8296917951312033</v>
+        <v>0.8085805300975686</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.16828878455334398</v>
+        <v>0.13674793608172192</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>2.2257444599837957</v>
+        <v>1.9009224554092812</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.03189325821283023</v>
+        <v>0.03373992768455241</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.04542142689578927</v>
+        <v>0.044787570364969796</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.0802785824032806</v>
+        <v>0.06806125180172096</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7003168477938833</v>
+        <v>0.618653325275147</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7271082990526023</v>
+        <v>0.6517092096861179</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8216505497382118</v>
+        <v>0.8060349593517253</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.19499181590935236</v>
+        <v>0.13489596496399994</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>2.664457352599224</v>
+        <v>1.8711640612110165</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.029033850143390955</v>
+        <v>0.03528890854296048</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.04287427129840859</v>
+        <v>0.04505685923966893</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.1378677285131064</v>
+        <v>0.06586169705225092</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7087085760543911</v>
+        <v>0.6283393582030807</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7287125513015243</v>
+        <v>0.6545045487064893</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8223529963053278</v>
+        <v>0.8074315289783469</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.19626641133600914</v>
+        <v>0.1363423332361848</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>2.6861270390413705</v>
+        <v>1.8943941121542138</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.02814079252119363</v>
+        <v>0.034264253529937325</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.04243028530955721</v>
+        <v>0.04465053912812929</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.1378677285131064</v>
+        <v>0.06627575120138146</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7168936847259482</v>
+        <v>0.6598772535199555</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.739250221574347</v>
+        <v>0.6920079244337819</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8565192023124746</v>
+        <v>0.8404753430833821</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.2049204922039056</v>
+        <v>0.15770776472787273</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>2.8350943423145716</v>
+        <v>2.2468367835814695</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.02778523037824115</v>
+        <v>0.03210084897117762</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.047894607078830725</v>
+        <v>0.058573356921713865</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.1378677285131064</v>
+        <v>0.07191355848474808</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7155331811206349</v>
+        <v>0.6596349104141211</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7322711280027479</v>
+        <v>0.6841419219770944</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8529003900374352</v>
+        <v>0.8244725153980158</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.19913343328892044</v>
+        <v>0.15290004929117967</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>2.73512200062705</v>
+        <v>2.1659788670261</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.027756623386616164</v>
+        <v>0.03129365626203526</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.050008378463799734</v>
+        <v>0.05650449571181819</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.10678234226746308</v>
+        <v>0.06934463020907064</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7073211012375322</v>
+        <v>0.656951960425904</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7261514111538989</v>
+        <v>0.677350299881497</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8694030679599263</v>
+        <v>0.8276421758029657</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.19423676665336487</v>
+        <v>0.14889612148304782</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>2.6516529232947237</v>
+        <v>2.0993365238917607</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.028855353631095655</v>
+        <v>0.03136194372213461</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.055343194747345115</v>
+        <v>0.05931735755958897</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.09632426187758883</v>
+        <v>0.06586169705225092</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.6958033862614277</v>
+        <v>0.6515664348699739</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7161393771105052</v>
+        <v>0.6872425966299347</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8637538506360579</v>
+        <v>0.8429931751867143</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.18656234435295702</v>
+        <v>0.1547728151309597</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>2.52285565296351</v>
+        <v>2.19736635879652</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.02992186042259302</v>
+        <v>0.03245842416071123</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.05543881934821853</v>
+        <v>0.06352500202722931</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.08924052136139907</v>
+        <v>0.06597731515261948</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.6866607661313721</v>
+        <v>0.6403064260959983</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.706964783089269</v>
+        <v>0.6772629326906449</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8343949591632847</v>
+        <v>0.8384837159247972</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.17987313926879994</v>
+        <v>0.14884547165265022</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>2.4125591133458744</v>
+        <v>2.0984975117266718</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.030745075564854882</v>
+        <v>0.0334268019976478</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.05004422753108557</v>
+        <v>0.06416534254527417</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.08924052136139907</v>
+        <v>0.06460499693449667</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.6845403066709115</v>
+        <v>0.6260365794619177</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7051607377867822</v>
+        <v>0.6641356803510726</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8321469667352945</v>
+        <v>0.8067166378193239</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.1785943813779054</v>
+        <v>0.141470788590281</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>2.391678545433456</v>
+        <v>1.977392778861658</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.030915525380956307</v>
+        <v>0.034695995619480335</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.04994350510721367</v>
+        <v>0.059535231388118115</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.08105033593107519</v>
+        <v>0.0627138244240297</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.6228267453165482</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.6627639061365982</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8044076044199278</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.14072624506159623</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>1.9652816474770705</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.034967788121170684</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.05920064970768227</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.06430656088573469</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>243.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.5733421750876401</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6243318807311701</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.607802758086708</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.47100915001429633</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.4814814814814814</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.053656887922043</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>243.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5701359209958247</v>
+        <v>0.19415444622259123</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6124856888309067</v>
+        <v>0.34416362641498316</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.5914315942359163</v>
+        <v>0.24332877289731733</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.45580008437999947</v>
+        <v>0.17618268730361428</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>4.012345679012346</v>
+        <v>0.9835390946502057</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.1588020370209828</v>
+        <v>0.12750233150681137</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>243.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.5946567699029679</v>
+        <v>0.46550438153319684</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6464508494255401</v>
+        <v>0.5099364075924336</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6398496297631491</v>
+        <v>0.47377758028851197</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.4931611460897543</v>
+        <v>0.33245145784158503</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.4897119341563787</v>
+        <v>3.4814814814814814</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.0770411715761894</v>
+        <v>1.053656887922043</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>243.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.6114387318451402</v>
+        <v>0.46705870741491184</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6516182219087239</v>
+        <v>0.5164287389340657</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6435013666248759</v>
+        <v>0.47865601437418775</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.4939701280152167</v>
+        <v>0.3195743390369637</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.950617283950617</v>
+        <v>4.012345679012346</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.2554137433423125</v>
+        <v>1.1588020370209828</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>243.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.48344143436851034</v>
+        <v>0.5608304453476576</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.40809345585234047</v>
+        <v>0.5551255419791521</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.42484556350745</v>
+        <v>0.5934354131152545</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.3128760974263961</v>
+        <v>0.5189989442212005</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.7119341563786008</v>
+        <v>0.19753086419753085</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.5128040175933903</v>
+        <v>0.398957932487505</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>243.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.47346176097503717</v>
+        <v>0.5894405343139884</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.39646947395474674</v>
+        <v>0.5755875635343024</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.412353674391972</v>
+        <v>0.6168338189056021</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.27863032156107603</v>
+        <v>0.4155084364718323</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.7983539094650206</v>
+        <v>0.7119341563786008</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.6899304860804896</v>
+        <v>1.5128040175933903</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>243.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.31502455467770957</v>
+        <v>0.5762546907921919</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.3175464861227559</v>
+        <v>0.5596069586107569</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.2433772831733186</v>
+        <v>0.5999438068593471</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.16606612351398095</v>
+        <v>0.37443364935239576</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.1358024691358026</v>
+        <v>0.7983539094650206</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.2035047279682005</v>
+        <v>1.6899304860804896</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>243.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.3832809775782982</v>
+        <v>0.22747353408359197</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.3703229724189148</v>
+        <v>0.32354500519554663</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.30216686899348844</v>
+        <v>0.23652375841230586</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.20747090748013422</v>
+        <v>0.1872041960921908</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.1275720164609053</v>
+        <v>0.9094650205761317</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.4531886676121912</v>
+        <v>0.28753893342327363</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>243.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.42953136194411656</v>
+        <v>0.3477207780643831</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.41497931053205767</v>
+        <v>0.37666439564135845</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.2999333308573374</v>
+        <v>0.32696408291152157</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.26133086735322064</v>
+        <v>0.18080446917604123</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.2098765432098766</v>
+        <v>2.1358024691358026</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.434947944885162</v>
+        <v>1.2035047279682005</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>243.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.47848086731102957</v>
+        <v>0.41809790952279524</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.4849680646329732</v>
+        <v>0.4209029133651313</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.38440110274432093</v>
+        <v>0.3626219617680893</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.33586273667316535</v>
+        <v>0.22152337656918303</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.2222222222222223</v>
+        <v>2.1275720164609053</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.2824305436059895</v>
+        <v>1.4531886676121912</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>243.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.5375601077588152</v>
+        <v>0.43953499918226674</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.5459718915582631</v>
+        <v>0.3559726177758029</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.5208445773293789</v>
+        <v>0.24355886949018873</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.40179874903008544</v>
+        <v>0.248516915790897</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.185185185185185</v>
+        <v>1.2098765432098766</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.299501917720701</v>
+        <v>1.434947944885162</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>243.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5485363086399031</v>
+        <v>0.46876246924944187</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.5576338340572663</v>
+        <v>0.42146253220121527</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5354665819106716</v>
+        <v>0.319732216354371</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.4203130472764616</v>
+        <v>0.3040326767404309</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.2824305436059895</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>243.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.5405631458110101</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.5029437833614466</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.4817962526796477</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.3852457062265031</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.185185185185185</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.299501917720701</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>243.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.5531311980479277</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5111700810541642</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.4930930897161706</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.40677119031858994</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>2.0534979423868314</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.2502967032149326</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.01646090534979424</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.07407407407407407</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.012345679012345678</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.3004115226337449</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.5020576131687243</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.09465020576131687</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.01646090534979424</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.00411522633744856</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.0823045267489712</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.22633744855967078</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.18930041152263374</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.48148148148148145</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.0205761316872428</v>
+        <v>0.01646090534979424</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.06584362139917696</v>
+        <v>0.9835390946502057</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.024691358024691357</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.2880658436213992</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.49382716049382713</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.10699588477366255</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.0205761316872428</v>
+        <v>0.01646090534979424</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.0205761316872428</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.053497942386831275</v>
+        <v>0.012345679012345678</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.32098765432098764</v>
+        <v>0.3004115226337449</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.06172839506172839</v>
+        <v>0.5020576131687243</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.522633744855967</v>
+        <v>0.09465020576131687</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.8024691358024691</v>
+        <v>0.01646090534979424</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.01646090534979424</v>
+        <v>0.00411522633744856</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.00411522633744856</v>
+        <v>0.0823045267489712</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.053497942386831275</v>
+        <v>0.22633744855967078</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.09053497942386832</v>
+        <v>0.18930041152263374</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.03292181069958848</v>
+        <v>0.48148148148148145</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.8024691358024691</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.00823045267489712</v>
+        <v>0.19753086419753085</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.00823045267489712</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.04938271604938271</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.03292181069958848</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.09876543209876543</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
+        <v>0.8024691358024691</v>
+      </c>
+      <c r="C49" t="n" s="110">
+        <v>0.01646090534979424</v>
+      </c>
+      <c r="D49" t="n" s="111">
+        <v>0.00411522633744856</v>
+      </c>
+      <c r="E49" t="n" s="112">
+        <v>0.053497942386831275</v>
+      </c>
+      <c r="F49" t="n" s="113">
         <v>0.09053497942386832</v>
       </c>
-      <c r="C49" t="n" s="110">
-        <v>0.2962962962962963</v>
-      </c>
-      <c r="D49" t="n" s="111">
-        <v>0.09053497942386832</v>
-      </c>
-      <c r="E49" t="n" s="112">
-        <v>0.43621399176954734</v>
-      </c>
-      <c r="F49" t="n" s="113">
-        <v>0.0823045267489712</v>
-      </c>
       <c r="G49" t="n" s="114">
-        <v>0.00411522633744856</v>
+        <v>0.03292181069958848</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.09053497942386832</v>
+        <v>0.8024691358024691</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.3333333333333333</v>
+        <v>0.00823045267489712</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.2345679012345679</v>
+        <v>0.00823045267489712</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.13168724279835392</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.11934156378600823</v>
+        <v>0.03292181069958848</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.09053497942386832</v>
+        <v>0.09876543209876543</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.49794238683127573</v>
+        <v>0.09053497942386832</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.1522633744855967</v>
+        <v>0.9094650205761317</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.07818930041152264</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.18518518518518517</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.08641975308641975</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.16049382716049382</v>
+        <v>0.09053497942386832</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.1440329218106996</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.11522633744855967</v>
+        <v>0.09053497942386832</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.4732510288065844</v>
+        <v>0.43621399176954734</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.10699588477366255</v>
+        <v>0.0823045267489712</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.00411522633744856</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.18930041152263374</v>
+        <v>0.09053497942386832</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.053497942386831275</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.2839506172839506</v>
+        <v>0.2345679012345679</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.3292181069958848</v>
+        <v>0.13168724279835392</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.1440329218106996</v>
+        <v>0.11934156378600823</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.09053497942386832</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.1934156378600823</v>
+        <v>0.49794238683127573</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.04938271604938271</v>
+        <v>0.1522633744855967</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.39094650205761317</v>
+        <v>0.07818930041152264</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.24279835390946503</v>
+        <v>0.18518518518518517</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.12345679012345678</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.16049382716049382</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.1440329218106996</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.11522633744855967</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.4732510288065844</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.10699588477366255</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.18930041152263374</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.053497942386831275</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.2839506172839506</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.3292181069958848</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.1440329218106996</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.1934156378600823</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.04938271604938271</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.39094650205761317</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.24279835390946503</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.12345679012345678</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8615458827403716</v>
+        <v>0.8700755382606004</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8633904272256633</v>
+        <v>0.9841030800587629</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8753143652754376</v>
+        <v>0.9764180210161356</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6124080294325861</v>
+        <v>0.9537787899284771</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>6.320131230128978</v>
+        <v>61.905267416361156</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.014770022099190181</v>
+        <v>0.002586160476495615</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.733539094650206</v>
+        <v>0.5692729766803841</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.9573749327693121</v>
+        <v>1.184584009859783</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.6232311764351635</v>
+        <v>0.9541546178487011</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8282650824648725</v>
+        <v>0.9748076857907755</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8284635059905799</v>
+        <v>0.9778645968433277</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7895516739641297</v>
+        <v>0.9566879239515406</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.6168417601880612</v>
+        <v>0.9566879239515405</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.829663278212302</v>
+        <v>44.176498160981886</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.019034250421581262</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.01773168256519178</v>
-      </c>
+        <v>0.0030202634769471654</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.6139599251051625</v>
+        <v>0.9566879239515405</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8318076541303628</v>
+        <v>0.5981926139103897</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8349203637771838</v>
+        <v>0.9765395318607033</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7960196096249628</v>
+        <v>0.954154617848701</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.6276845044594536</v>
+        <v>0.954154617848701</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>5.057682357927242</v>
+        <v>41.62489537985742</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.01879635272899587</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.015929745494487342</v>
-      </c>
+        <v>0.007630541719260532</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.6325024277651645</v>
+        <v>0.9541546178487011</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8152829796088221</v>
+        <v>0.63827975706204</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8192916601937283</v>
+        <v>0.97461864718334</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.765651955757567</v>
+        <v>0.95049382798519</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6017934644571103</v>
+        <v>0.95049382798519</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.533778911764945</v>
+        <v>38.39900316675041</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.020651390431262795</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.00943848172332698</v>
-      </c>
+        <v>0.008050947664814562</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.6139599251051625</v>
+        <v>0.9504938279851899</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8183078226199746</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8202287876652989</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.770643086669506</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.6033123886257193</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>4.562625889946069</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.02049827213080255</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.011366133638846086</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.6325024277651645</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>243.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9706146525103807</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9834873702836163</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9703308544301603</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9628763221651234</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.19753086419753085</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.398957932487505</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>243.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8261471918010569</v>
+        <v>0.9873359562497612</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8382547436629619</v>
+        <v>0.9843451245363825</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7765657706619971</v>
+        <v>0.9725476744479022</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.6991642477191538</v>
+        <v>0.9623462135285232</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.4814814814814814</v>
+        <v>0.7119341563786008</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.053656887922043</v>
+        <v>1.5128040175933903</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>243.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8307959250346737</v>
+        <v>0.9899056955429125</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8285990460878697</v>
+        <v>0.9855846344678476</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7616340040986432</v>
+        <v>0.9755071300681939</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.6883718019534257</v>
+        <v>0.9640732897584926</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>4.012345679012346</v>
+        <v>0.7983539094650206</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.1588020370209828</v>
+        <v>1.6899304860804896</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>243.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8484168499557417</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8516555754968346</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.8089579696673422</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.731073541547757</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.4897119341563787</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.0770411715761894</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>243.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8622784077354321</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8503029407722213</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.8046436465181757</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.7258765696066113</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.950617283950617</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.2554137433423125</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.8024691358024691</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.19753086419753085</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.8024691358024691</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.01646090534979424</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.00411522633744856</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.053497942386831275</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.09053497942386832</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.03292181069958848</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.01646090534979424</v>
+        <v>0.8024691358024691</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.07407407407407407</v>
+        <v>0.00823045267489712</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.012345679012345678</v>
+        <v>0.00823045267489712</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.3004115226337449</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.5020576131687243</v>
+        <v>0.03292181069958848</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.09465020576131687</v>
+        <v>0.09876543209876543</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.01646090534979424</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.00411522633744856</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.0823045267489712</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.22633744855967078</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.18930041152263374</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.48148148148148145</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.0205761316872428</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.06584362139917696</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.024691358024691357</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.2880658436213992</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.49382716049382713</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.10699588477366255</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.0205761316872428</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.0205761316872428</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.053497942386831275</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.32098765432098764</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.06172839506172839</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.522633744855967</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.7857979655040424</v>
+        <v>0.6871120015785559</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.7942414685715737</v>
+        <v>0.7930465407127467</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.6587069034715098</v>
+        <v>0.7320173924280182</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.6587069034715098</v>
+        <v>0.560890204506738</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>3.8600657919637875</v>
+        <v>3.8320042749901124</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.026648693505704635</v>
+        <v>0.020045058027458703</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.1316872427983538</v>
+        <v>1.7242798353909465</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.2108087731965789</v>
+        <v>0.8642317832499586</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.6587069034715098</v>
+        <v>0.56107890517667</v>
       </c>
     </row>
     <row r="7">
@@ -5950,22 +5947,24 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
+        <v>0.7857979655040424</v>
+      </c>
+      <c r="C11" t="n" s="289">
+        <v>0.7942414685715737</v>
+      </c>
+      <c r="D11" t="n" s="290">
         <v>0.6587069034715098</v>
-      </c>
-      <c r="C11" t="n" s="289">
-        <v>0.6587069034715098</v>
-      </c>
-      <c r="D11" t="n" s="290">
-        <v>0.43389478468102494</v>
       </c>
       <c r="E11" t="n" s="291">
         <v>0.6587069034715098</v>
       </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.6587069034715098</v>
-      </c>
+      <c r="F11" t="n" s="292">
+        <v>3.8600657919637875</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.026648693505704635</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.6587069034715098</v>
       </c>
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.43389478468102494</v>
+        <v>0.2997219916465734</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.6587069034715098</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.43389478468102494</v>
-      </c>
+        <v>0.6328383524532202</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.4628848048720343</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.4628848048720344</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>1.7235960146752278</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.0308117649681277</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.6587069034715098</v>
+        <v>0.4628848048720343</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.4046281694632954</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.718834779351748</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.5610789051766701</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.56107890517667</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>2.5566276571988857</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.029548050482751283</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.56107890517667</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>243.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8922672940610227</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9106884493259784</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7391216706850553</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.6587069034715098</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.1358024691358026</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.2035047279682005</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>243.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9274567503983593</v>
+        <v>0.630794899051412</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9106884493259784</v>
+        <v>0.8022170283634152</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.7391216706850553</v>
+        <v>0.6273285633630246</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.6587069034715098</v>
+        <v>0.5566197147856417</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.9094650205761317</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.28753893342327363</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>243.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.8956170517896479</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.8798329565771571</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.8047823426803994</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.6962124846370156</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.1358024691358026</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.2035047279682005</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>243.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9175944808192384</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8409128025456857</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.7264859731660075</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.6682769756220622</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.1275720164609053</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.4531886676121912</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.09053497942386832</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.9094650205761317</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.09053497942386832</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.2962962962962963</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.09053497942386832</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.43621399176954734</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.0823045267489712</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.00411522633744856</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.09053497942386832</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.3333333333333333</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.2345679012345679</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.13168724279835392</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.11934156378600823</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.09053497942386832</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8742729991287763</v>
+        <v>0.6596435047648443</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.8746395303537882</v>
+        <v>0.7669807776727888</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.7772083291931835</v>
+        <v>0.712054068837032</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.7772083291931833</v>
+        <v>0.523165528482156</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>6.976996279785547</v>
+        <v>3.291491448700212</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.01610050158892391</v>
+        <v>0.01748132219383064</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.119341563786008</v>
+        <v>2.825788751714678</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.2018221266786546</v>
+        <v>0.6998050083930117</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.7772083291931834</v>
+        <v>0.44886484319438524</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.7772083291931834</v>
+        <v>0.8159858166506613</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.7772083291931834</v>
+        <v>0.818168788301818</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6040527869672598</v>
+        <v>0.6922890343420405</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.7772083291931834</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.7772083291931834</v>
-      </c>
+        <v>0.6922890343420405</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>4.499605874374748</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.023405958283465613</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.7772083291931834</v>
+        <v>0.6922890343420406</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6040527869672598</v>
+        <v>0.17783452269670086</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.7772083291931834</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6040527869672598</v>
-      </c>
+        <v>0.6196089929337376</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.4488648431943856</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.44886484319438535</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>1.6288739255757547</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.020593016099332184</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.7772083291931834</v>
+        <v>0.44886484319438524</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.18539926037529098</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.5997758178592802</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.42834270791004214</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.42834270791004236</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>1.4985996464561397</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.0226448770715693</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.4283427079100423</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>243.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9449164227400738</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9426580316300242</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8310418509799743</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.7772083291931834</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.185185185185185</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.299501917720701</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>243.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9403556347046415</v>
+        <v>0.5234668026796874</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9426580316300242</v>
+        <v>0.7576414339441405</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8310418509799743</v>
+        <v>0.5286318813774656</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.7772083291931835</v>
+        <v>0.4772473482427192</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>2.0534979423868314</v>
+        <v>0.9835390946502057</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.2502967032149326</v>
+        <v>0.12750233150681137</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>243.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9100142192725499</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8558874979605018</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.7735040694177635</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.7015467433052173</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.4814814814814814</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.053656887922043</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>243.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9266716857764655</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.86417023685918</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.7886282793122856</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.7060090361372908</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>4.012345679012346</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.1588020370209828</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.01646090534979424</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9835390946502057</v>
+      </c>
+      <c r="D25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.01646090534979424</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.012345679012345678</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.3004115226337449</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.5020576131687243</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.09465020576131687</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.01646090534979424</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.00411522633744856</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.0823045267489712</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.22633744855967078</v>
+      </c>
+      <c r="F27" t="n" s="458">
         <v>0.18930041152263374</v>
       </c>
-      <c r="C23" t="n" s="455">
-        <v>0.053497942386831275</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.2839506172839506</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.3292181069958848</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.1440329218106996</v>
-      </c>
-      <c r="G23" t="n" s="459">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.1934156378600823</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.04938271604938271</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.39094650205761317</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.24279835390946503</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.12345679012345678</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="G27" t="n" s="459">
+        <v>0.48148148148148145</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9748076857907755</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9778645968433277</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9566879239515406</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9566879239515405</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>44.176498160981886</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.0030202634769471654</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.7551440329218106</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.5839863275231774</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9566879239515405</v>
+      <c r="A6" t="n" s="491">
+        <v>0.5562582030783916</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.5587916511121376</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.38772440608142467</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.3877244060814249</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>1.2665028948809849</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.056511964987024786</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.7160493827160495</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.1325525317709073</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.38772440608142483</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9566879239515405</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9566879239515405</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9152517838347087</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9566879239515405</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9566879239515405</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9566879239515405</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.3877244060814249</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.3877244060814249</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.15033021507119348</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.3877244060814249</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.3877244060814249</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.3877244060814249</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9152517838347087</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9566879239515405</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9152517838347087</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9566879239515405</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.15033021507119348</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.3877244060814249</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.15033021507119348</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.3877244060814249</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>243.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9878684088257571</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.989112714495052</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9674553498188558</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9566879239515407</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.7119341563786008</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.5128040175933903</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8530189600672378</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8329839152352898</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.5186784269432353</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.38772440608142494</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.2098765432098766</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.434947944885162</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>243.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9902900569612256</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.989112714495052</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9674553498188558</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9566879239515405</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.7983539094650206</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.6899304860804896</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8117923150192126</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8329839152352898</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.5186784269432353</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.3877244060814247</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.2824305436059895</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.8024691358024691</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.01646090534979424</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.00411522633744856</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.053497942386831275</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.09053497942386832</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.03292181069958848</v>
-      </c>
-      <c r="H23" t="n" s="574">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.49794238683127573</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.1522633744855967</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.07818930041152264</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.18518518518518517</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.08641975308641975</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.8024691358024691</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.00823045267489712</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.00823045267489712</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.04938271604938271</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.03292181069958848</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.09876543209876543</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.16049382716049382</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.1440329218106996</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.11522633744855967</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.4732510288065844</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.10699588477366255</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.5562582030783916</v>
+        <v>0.8742729991287763</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.5587916511121376</v>
+        <v>0.8746395303537882</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.38772440608142467</v>
+        <v>0.7772083291931835</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.3877244060814249</v>
+        <v>0.7772083291931833</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>1.2665028948809849</v>
+        <v>6.976996279785547</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.056511964987024786</v>
+        <v>0.01610050158892391</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.7160493827160495</v>
+        <v>2.119341563786008</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.1325525317709073</v>
+        <v>1.2018221266786546</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.38772440608142483</v>
+        <v>0.7772083291931834</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.3877244060814249</v>
+        <v>0.7772083291931834</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.3877244060814249</v>
+        <v>0.7772083291931834</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.15033021507119348</v>
+        <v>0.6040527869672598</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.3877244060814249</v>
+        <v>0.7772083291931834</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.3877244060814249</v>
+        <v>0.7772083291931834</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.3877244060814249</v>
+        <v>0.7772083291931834</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.15033021507119348</v>
+        <v>0.6040527869672598</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.3877244060814249</v>
+        <v>0.7772083291931834</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.15033021507119348</v>
+        <v>0.6040527869672598</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.3877244060814249</v>
+        <v>0.7772083291931834</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>243.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8530189600672378</v>
+        <v>0.9449164227400738</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8329839152352898</v>
+        <v>0.9426580316300242</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.5186784269432353</v>
+        <v>0.8310418509799743</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.38772440608142494</v>
+        <v>0.7772083291931834</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.2098765432098766</v>
+        <v>2.185185185185185</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.434947944885162</v>
+        <v>1.299501917720701</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>243.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8117923150192126</v>
+        <v>0.9403556347046415</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8329839152352898</v>
+        <v>0.9426580316300242</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.5186784269432353</v>
+        <v>0.8310418509799743</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.3877244060814247</v>
+        <v>0.7772083291931835</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.2222222222222223</v>
+        <v>2.0534979423868314</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.2824305436059895</v>
+        <v>1.2502967032149326</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.49794238683127573</v>
+        <v>0.18930041152263374</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.1522633744855967</v>
+        <v>0.053497942386831275</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.07818930041152264</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.18518518518518517</v>
+        <v>0.3292181069958848</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.08641975308641975</v>
+        <v>0.1440329218106996</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.16049382716049382</v>
+        <v>0.1934156378600823</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.1440329218106996</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.11522633744855967</v>
+        <v>0.39094650205761317</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.4732510288065844</v>
+        <v>0.24279835390946503</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.10699588477366255</v>
+        <v>0.12345679012345678</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.7379708065426428</v>
+        <v>0.68979667482419</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.7571630682143611</v>
+        <v>0.7233457591527824</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.8763865770201773</v>
+        <v>0.8541542169719276</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.23768807736037387</v>
+        <v>0.20726903683135928</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>3.117989766411381</v>
+        <v>2.6146201733168093</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.026229514745829526</v>
+        <v>0.029255165588585284</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.411522633744856</v>
+        <v>1.78559670781893</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.7175133155256919</v>
+        <v>0.6232399630634774</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.18515988135470435</v>
+        <v>0.08331020093068016</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.702864554575715</v>
+        <v>0.6680631156377317</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.7164418460887784</v>
+        <v>0.6841639603972148</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8432865752810408</v>
+        <v>0.8189120926248887</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.21919824608507843</v>
+        <v>0.19399615132807646</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>2.526613451973196</v>
+        <v>2.1661997828292847</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.029845479724291853</v>
+        <v>0.031988654234986535</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.05155142320176469</v>
+        <v>0.05016120445976922</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.17538223408701248</v>
+        <v>0.1061514019530555</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7063675043075157</v>
+        <v>0.6388102518538122</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.7227827262830254</v>
+        <v>0.6808043635559302</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8468692158416395</v>
+        <v>0.8157336487225059</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.22462446714546783</v>
+        <v>0.19158347913038665</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>2.607278819937288</v>
+        <v>2.13287490750276</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.02954601848662813</v>
+        <v>0.03379082878239994</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.051519378763063874</v>
+        <v>0.0506115082132835</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.1895148264289812</v>
+        <v>0.09504627159907161</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7037818128132334</v>
+        <v>0.6490404542314543</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.7176264409943772</v>
+        <v>0.6825326231082108</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8392046576981544</v>
+        <v>0.8169250930361927</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.22019913453209425</v>
+        <v>0.19282004130530872</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>2.541408067814478</v>
+        <v>2.149929954348843</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.029688198575079865</v>
+        <v>0.032636762066574364</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.048916413783244406</v>
+        <v>0.050079436751346296</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.1638330844282751</v>
+        <v>0.10092236175811836</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7034248619730054</v>
+        <v>0.6953746413595234</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.7198297525771311</v>
+        <v>0.7281414036450102</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8413870662081835</v>
+        <v>0.8616661835507295</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.22207632382797396</v>
+        <v>0.22934535447031365</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>2.5692583677190797</v>
+        <v>2.678382855674762</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.029760362370596337</v>
+        <v>0.029800415411117477</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.04964513148094005</v>
+        <v>0.07533378521829039</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.17538223408701248</v>
+        <v>0.1061514019530555</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.7139170248105058</v>
+        <v>0.6617201279368132</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.7357917740680651</v>
+        <v>0.6911092181520291</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.845500996297223</v>
+        <v>0.8270367929657605</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.2363104519137081</v>
+        <v>0.19910229920319672</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>2.784893511444338</v>
+        <v>2.2373902322931016</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.028797512893484308</v>
+        <v>0.03164249791210828</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.05577653731442197</v>
+        <v>0.07653884742699248</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.15428760645949116</v>
+        <v>0.07786823491630096</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.71309328677309</v>
+        <v>0.6687865579172201</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.7352978152546668</v>
+        <v>0.6957096531843114</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.843843429800714</v>
+        <v>0.8303272093983755</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.23585248044451465</v>
+        <v>0.2025754999922603</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>2.7778305493099267</v>
+        <v>2.286334944452606</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.028836677140769425</v>
+        <v>0.031019604108712993</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.05537126612229923</v>
+        <v>0.0759153087780271</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.15428760645949116</v>
+        <v>0.08043413642266856</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7258087872676092</v>
+        <v>0.6893534611802277</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.7551826156985322</v>
+        <v>0.7289324591465868</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8272341738698107</v>
+        <v>0.8635598007712758</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.2552552448031088</v>
+        <v>0.2300530793232716</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>3.0846772497520085</v>
+        <v>2.689117468110194</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.027116214719230508</v>
+        <v>0.029260521466898403</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.04400613247138415</v>
+        <v>0.07922555501610529</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.20322807081765895</v>
+        <v>0.0898172314041345</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7349624897064205</v>
+        <v>0.6757175327337978</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.7563310915479778</v>
+        <v>0.7193630297599526</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.827698090888848</v>
+        <v>0.8585843788288391</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.2564398143593404</v>
+        <v>0.22167698044579387</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>3.1039294112358924</v>
+        <v>2.563322391717077</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.026069878646065643</v>
+        <v>0.03044086953406942</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.04350942330442811</v>
+        <v>0.0809017066506731</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.20322807081765895</v>
+        <v>0.08218026843087767</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.7399627372723576</v>
+        <v>0.6553900711922387</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.7589054421699594</v>
+        <v>0.700166266902426</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.8856916616279364</v>
+        <v>0.8182296127170625</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.2591220717224788</v>
+        <v>0.20601185015292056</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>3.147750198098413</v>
+        <v>2.335181767805203</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.0264658974628372</v>
+        <v>0.032120373476611196</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.060878192598370504</v>
+        <v>0.07498165303929863</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.20009294730810423</v>
+        <v>0.08179439166698038</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.72609164776818</v>
+        <v>0.6537923126363352</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.7477895859722985</v>
+        <v>0.6995413185060293</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.879649913217903</v>
+        <v>0.8163076508731637</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.2478025387699736</v>
+        <v>0.20552563296206433</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>2.964943334537189</v>
+        <v>2.3282446525681997</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.02774418394673453</v>
+        <v>0.032216150589543434</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.062394421397019326</v>
+        <v>0.07444502996909802</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.17538223408701248</v>
+        <v>0.08082001318656584</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>243.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.6266665767508015</v>
+        <v>0.6297126343475343</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.679087730789925</v>
+        <v>0.6245597408756689</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.6563891570537774</v>
+        <v>0.6614753056407856</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.5243008079177275</v>
+        <v>0.588670584892445</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.4814814814814814</v>
+        <v>0.19753086419753085</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.053656887922043</v>
+        <v>0.398957932487505</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>243.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.5996920498565667</v>
+        <v>0.6547467376380416</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6442226243202862</v>
+        <v>0.6407855579524662</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6158742899764261</v>
+        <v>0.6803068706088214</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.4802875302098301</v>
+        <v>0.4786136422643416</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>4.012345679012346</v>
+        <v>0.7119341563786008</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.1588020370209828</v>
+        <v>1.5128040175933903</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>243.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.6188192831601352</v>
+        <v>0.6473352845072703</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.6726567207221317</v>
+        <v>0.6324693715788743</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.6587695135093726</v>
+        <v>0.6718811978875584</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.5123976544634735</v>
+        <v>0.4425770507038654</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.4897119341563787</v>
+        <v>0.7983539094650206</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>1.0770411715761894</v>
+        <v>1.6899304860804896</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>243.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.6176412853646535</v>
+        <v>0.2102079248668169</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6605952134712978</v>
+        <v>0.3868276094465874</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.643357708009921</v>
+        <v>0.27114465156890183</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.49050553740494873</v>
+        <v>0.19053103606852484</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.950617283950617</v>
+        <v>0.9835390946502057</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.2554137433423125</v>
+        <v>0.12750233150681137</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>243.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.5618670530643478</v>
+        <v>0.524080361561703</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.5691366485347661</v>
+        <v>0.5902196338905136</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.536032683043857</v>
+        <v>0.545518500167804</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.418114501424908</v>
+        <v>0.38476051509801645</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.185185185185185</v>
+        <v>3.4814814814814814</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.299501917720701</v>
+        <v>1.053656887922043</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>243.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.5626467126737109</v>
+        <v>0.4968850821781969</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.5720792533154755</v>
+        <v>0.5668614998148217</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.5410451121301798</v>
+        <v>0.5176509183112618</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.4252219290333891</v>
+        <v>0.33731632324025873</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>2.0534979423868314</v>
+        <v>4.012345679012346</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.2502967032149326</v>
+        <v>1.1588020370209828</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>243.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.5295655033364839</v>
+        <v>0.45759366702187254</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.4474106418381619</v>
+        <v>0.38206798482132964</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.4627004779955099</v>
+        <v>0.2502190739073035</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.3517278156679938</v>
+        <v>0.2477245660406644</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.7119341563786008</v>
+        <v>1.2098765432098766</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.5128040175933903</v>
+        <v>1.434947944885162</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>243.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.5240131874724937</v>
+        <v>0.48328561359558225</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.4397994252586916</v>
+        <v>0.4383993208118783</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.4545793983679743</v>
+        <v>0.31828059374227824</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.32081172934966157</v>
+        <v>0.30217610952251994</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>0.7983539094650206</v>
+        <v>2.2222222222222223</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.6899304860804896</v>
+        <v>1.2824305436059895</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>243.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.4391216516539872</v>
+        <v>0.5737262538730941</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.422565112925297</v>
+        <v>0.5437511953266754</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.2943701832091107</v>
+        <v>0.5126422934884485</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.25721266342478755</v>
+        <v>0.40725354166700045</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.2098765432098766</v>
+        <v>2.185185185185185</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.434947944885162</v>
+        <v>1.299501917720701</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>243.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.4893941386847754</v>
+        <v>0.5758310253986789</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.49529652529929996</v>
+        <v>0.547021126155232</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.38201859756874323</v>
+        <v>0.5181138757005497</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.33557995673975627</v>
+        <v>0.4171136386158497</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.2222222222222223</v>
+        <v>2.0534979423868314</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.2824305436059895</v>
+        <v>1.2502967032149326</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.01646090534979424</v>
+        <v>0.8024691358024691</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.07407407407407407</v>
+        <v>0.19753086419753085</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.012345679012345678</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.3004115226337449</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.5020576131687243</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.09465020576131687</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
+        <v>0.8024691358024691</v>
+      </c>
+      <c r="C40" t="n" s="798">
         <v>0.01646090534979424</v>
       </c>
-      <c r="C40" t="n" s="798">
+      <c r="D40" t="n" s="799">
         <v>0.00411522633744856</v>
       </c>
-      <c r="D40" t="n" s="799">
-        <v>0.0823045267489712</v>
-      </c>
       <c r="E40" t="n" s="800">
-        <v>0.22633744855967078</v>
+        <v>0.053497942386831275</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.18930041152263374</v>
+        <v>0.09053497942386832</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.48148148148148145</v>
+        <v>0.03292181069958848</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.0205761316872428</v>
+        <v>0.8024691358024691</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.06584362139917696</v>
+        <v>0.00823045267489712</v>
       </c>
       <c r="D41" t="n" s="799">
-        <v>0.024691358024691357</v>
+        <v>0.00823045267489712</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.2880658436213992</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.49382716049382713</v>
+        <v>0.03292181069958848</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.10699588477366255</v>
+        <v>0.09876543209876543</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.0205761316872428</v>
+        <v>0.01646090534979424</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.0205761316872428</v>
+        <v>0.9835390946502057</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.053497942386831275</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.32098765432098764</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.06172839506172839</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.522633744855967</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.18930041152263374</v>
+        <v>0.01646090534979424</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.053497942386831275</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.2839506172839506</v>
+        <v>0.012345679012345678</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.3292181069958848</v>
+        <v>0.3004115226337449</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.1440329218106996</v>
+        <v>0.5020576131687243</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.09465020576131687</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.1934156378600823</v>
+        <v>0.01646090534979424</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.04938271604938271</v>
+        <v>0.00411522633744856</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.39094650205761317</v>
+        <v>0.0823045267489712</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.24279835390946503</v>
+        <v>0.22633744855967078</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.12345679012345678</v>
+        <v>0.18930041152263374</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.48148148148148145</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.8024691358024691</v>
+        <v>0.49794238683127573</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.01646090534979424</v>
+        <v>0.1522633744855967</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.00411522633744856</v>
+        <v>0.07818930041152264</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.053497942386831275</v>
+        <v>0.18518518518518517</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.09053497942386832</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.03292181069958848</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.8024691358024691</v>
+        <v>0.16049382716049382</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.00823045267489712</v>
+        <v>0.1440329218106996</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.00823045267489712</v>
+        <v>0.11522633744855967</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.04938271604938271</v>
+        <v>0.4732510288065844</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.03292181069958848</v>
+        <v>0.10699588477366255</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.09876543209876543</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.49794238683127573</v>
+        <v>0.18930041152263374</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.1522633744855967</v>
+        <v>0.053497942386831275</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.07818930041152264</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.18518518518518517</v>
+        <v>0.3292181069958848</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.08641975308641975</v>
+        <v>0.1440329218106996</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.16049382716049382</v>
+        <v>0.1934156378600823</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.1440329218106996</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.11522633744855967</v>
+        <v>0.39094650205761317</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.4732510288065844</v>
+        <v>0.24279835390946503</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.10699588477366255</v>
+        <v>0.12345679012345678</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
